--- a/data_config/SkillUpdateParam.xlsx
+++ b/data_config/SkillUpdateParam.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18100"/>
+    <workbookView windowWidth="14910" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>#</t>
   </si>
@@ -24,16 +37,16 @@
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
+    <t>upgradeExpPerLevel</t>
   </si>
   <si>
-    <t>describe</t>
+    <t>decomoseExpPerLevel</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
+    <t>List&lt;int&gt;</t>
   </si>
   <si>
     <t>转表符</t>
@@ -42,16 +55,22 @@
     <t>ID</t>
   </si>
   <si>
-    <t>名称</t>
+    <t>技能每个等级升级所需要的经验</t>
   </si>
   <si>
-    <t>描述</t>
+    <t>技能每个等级对应的分解经验</t>
+  </si>
+  <si>
+    <t>0,2,4,8,16</t>
+  </si>
+  <si>
+    <t>1,2,4,8,16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -661,7 +680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,9 +688,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1022,19 +1038,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="9.61538461538461" customWidth="1"/>
-    <col min="4" max="4" width="10.4134615384615" customWidth="1"/>
-    <col min="5" max="5" width="18.9134615384615" customWidth="1"/>
-    <col min="6" max="6" width="22.1153846153846" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="4" width="28.875" customWidth="1"/>
+    <col min="5" max="5" width="18.9166666666667" customWidth="1"/>
+    <col min="6" max="6" width="22.1166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1044,10 +1059,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1072,10 +1087,10 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1086,56 +1101,12 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="3:4">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1150,10 +1121,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1167,10 +1138,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
